--- a/BalanceInfo/Core Comparison/HWR Core Comparison_2.1.xlsx
+++ b/BalanceInfo/Core Comparison/HWR Core Comparison_2.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Homeworld Remastered Patch Beta\HomeworldRM\Git\2.3\BalanceInfo\Core Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Homeworld Remastered Patch Beta\HomeworldRM\Git\File_Share\BalanceInfo\Core Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>Cost</t>
   </si>
@@ -277,18 +277,6 @@
   </si>
   <si>
     <t>Note: All research times are with one research ship/mod.</t>
-  </si>
-  <si>
-    <t>kus_researchship_1.ship</t>
-  </si>
-  <si>
-    <t>Stats</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Version</t>
   </si>
   <si>
     <t>HWR Core Comparison</t>
@@ -298,6 +286,15 @@
 Hiigaran: Interceptors, Pulsar Corvettes, Ion Frigates, Destroyers, Cruisers
 Vaygr: Assault Craft, Missile Corvettes, Heavy Missile Frigates, Destroyers, Cruisers
 Kushan/Taiidan: Interceptors, Heavy Corvettes, Ion Frigates, Destroyers, Cruisers</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
   <si>
     <t>Stats are from Homeworld Remastered as of:</t>
@@ -726,46 +723,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="100.7109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="11" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="31">
         <v>42531</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,9 +782,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -994,19 +991,23 @@
         <v>9</v>
       </c>
       <c r="B8" s="14">
-        <v>450</v>
+        <f>450/5</f>
+        <v>90</v>
       </c>
       <c r="C8" s="20">
-        <v>35</v>
+        <f>35/5</f>
+        <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="14">
-        <v>450</v>
+        <f>450/5</f>
+        <v>90</v>
       </c>
       <c r="G8" s="20">
-        <v>35</v>
+        <f>35/5</f>
+        <v>7</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>10</v>
@@ -1015,12 +1016,12 @@
         <v>100</v>
       </c>
       <c r="K8" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" s="22">
         <f>$B$7+($B$8*A9)</f>
@@ -1031,7 +1032,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="22">
         <f>$F$7+($F$8*E9)</f>
@@ -1050,12 +1051,12 @@
       </c>
       <c r="K9" s="22">
         <f>(K$8*$I9)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B10" s="22">
         <f t="shared" ref="B10:B11" si="0">$B$7+($B$8*A10)</f>
@@ -1066,7 +1067,7 @@
         <v>245</v>
       </c>
       <c r="E10" s="12">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F10" s="22">
         <f>$F$7+($F$8*E10)</f>
@@ -1085,12 +1086,12 @@
       </c>
       <c r="K10" s="22">
         <f>(K$8*$I10)</f>
-        <v>245</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B11" s="22">
         <f t="shared" si="0"/>
@@ -1101,7 +1102,7 @@
         <v>490</v>
       </c>
       <c r="E11" s="12">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F11" s="22">
         <f>$F$7+($F$8*E11)</f>
@@ -1120,93 +1121,101 @@
       </c>
       <c r="K11" s="22">
         <f>(K$8*$I11)</f>
-        <v>490</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="19"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>140</v>
+      </c>
+      <c r="B12" s="22">
+        <f t="shared" ref="B12" si="1">$B$7+($B$8*A12)</f>
+        <v>15900</v>
+      </c>
+      <c r="C12" s="23">
+        <f>($C$8*A12)</f>
+        <v>980</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="12">
+        <v>140</v>
+      </c>
+      <c r="F12" s="22">
+        <f>$F$7+($F$8*E12)</f>
+        <v>15200</v>
+      </c>
+      <c r="G12" s="23">
+        <f>($G$8*E12)</f>
+        <v>980</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="26">
+        <v>140</v>
+      </c>
+      <c r="J12" s="22">
+        <f>J$7+(J$8*$I12)</f>
+        <v>14900</v>
+      </c>
+      <c r="K12" s="22">
+        <f>(K$8*$I12)</f>
+        <v>1260</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="20"/>
-      <c r="I13" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="19"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="19"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="20"/>
+      <c r="I14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B15" s="15">
         <v>1500</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C15" s="19">
         <v>75</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="11" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" s="15">
-        <v>500</v>
-      </c>
-      <c r="G14" s="19">
-        <v>30</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="15">
-        <v>600</v>
-      </c>
-      <c r="K14" s="15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="14">
-        <v>800</v>
-      </c>
-      <c r="C15" s="20">
-        <v>60</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="F15" s="15">
         <v>500</v>
       </c>
       <c r="G15" s="19">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J15" s="15">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K15" s="15">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1216,34 +1225,34 @@
       <c r="B16" s="14">
         <v>800</v>
       </c>
+      <c r="C16" s="20">
+        <v>60</v>
+      </c>
       <c r="E16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="14">
-        <v>725</v>
-      </c>
-      <c r="G16" s="20">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="F16" s="15">
+        <v>500</v>
+      </c>
+      <c r="G16" s="19">
+        <v>28</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J16" s="15">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K16" s="15">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="19">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="14">
+        <v>800</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>56</v>
@@ -1251,1218 +1260,1394 @@
       <c r="F17" s="14">
         <v>725</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>60</v>
+      </c>
       <c r="I17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" s="15">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K17" s="15">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="19">
+        <v>35</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="14">
+        <v>725</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="I18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="15">
+        <v>600</v>
+      </c>
+      <c r="K18" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B19" s="15">
         <v>600</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C19" s="19">
         <v>21</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="15">
         <v>1600</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G19" s="19">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="11" t="s">
+    <row r="20" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="15">
         <v>1000</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G20" s="19">
         <v>42</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="17">
-        <f>SUM(B14:B18)</f>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="17">
+        <f>SUM(B15:B19)</f>
         <v>4700</v>
       </c>
-      <c r="C20" s="18">
-        <f>SUM(C14:C18)</f>
+      <c r="C21" s="18">
+        <f>SUM(C15:C19)</f>
         <v>191</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="17">
-        <f>SUM(F14:F19)</f>
+      <c r="E21" s="11"/>
+      <c r="F21" s="17">
+        <f>SUM(F15:F20)</f>
         <v>5050</v>
       </c>
-      <c r="G20" s="18">
-        <f>SUM(G14:G19)</f>
+      <c r="G21" s="18">
+        <f>SUM(G15:G20)</f>
         <v>213</v>
       </c>
-      <c r="J20" s="17">
-        <f>SUM(J14:J17)</f>
+      <c r="J21" s="17">
+        <f>SUM(J15:J18)</f>
         <v>2900</v>
       </c>
-      <c r="K20" s="17">
-        <f>SUM(K14:K17)</f>
+      <c r="K21" s="17">
+        <f>SUM(K15:K18)</f>
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="14">
-        <v>625</v>
-      </c>
-      <c r="C21" s="20">
-        <v>45</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="B22" s="14">
+        <f>625/3</f>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="C22" s="20">
+        <f>45/3</f>
+        <v>15</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="14">
-        <v>625</v>
-      </c>
-      <c r="G21" s="20">
-        <v>45</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="F22" s="14">
+        <f>625/3</f>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="G22" s="20">
+        <f>45/3</f>
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J22" s="15">
         <v>315</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K22" s="15">
         <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>1</v>
-      </c>
-      <c r="B22" s="22">
-        <f>$B$20+($B$21*A22)</f>
-        <v>5325</v>
-      </c>
-      <c r="C22" s="23">
-        <f>($C$21*A22)</f>
-        <v>45</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22">
-        <f>$F$20+($F$21*E22)</f>
-        <v>5675</v>
-      </c>
-      <c r="G22" s="23">
-        <f>($G$21*E22)</f>
-        <v>45</v>
-      </c>
-      <c r="I22" s="26">
-        <v>3</v>
-      </c>
-      <c r="J22" s="22">
-        <f>J$20+(J$21*$I22)</f>
-        <v>3845</v>
-      </c>
-      <c r="K22" s="22">
-        <f>(K$21*$I22)</f>
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B23" s="22">
-        <f>$B$20+($B$21*A23)</f>
-        <v>9075</v>
+        <f>$B$21+($B$22*A23)</f>
+        <v>5325</v>
       </c>
       <c r="C23" s="23">
-        <f t="shared" ref="C23:C24" si="1">($C$21*A23)</f>
-        <v>315</v>
+        <f>($C$22*A23)</f>
+        <v>45</v>
       </c>
       <c r="E23" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F23" s="22">
-        <f>$F$20+($F$21*E23)</f>
-        <v>9425</v>
+        <f>$F$21+($F$22*E23)</f>
+        <v>5675</v>
       </c>
       <c r="G23" s="23">
-        <f>($G$21*E23)</f>
-        <v>315</v>
+        <f>($G$22*E23)</f>
+        <v>45</v>
       </c>
       <c r="I23" s="26">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J23" s="22">
-        <f>J$20+(J$21*$I23)</f>
-        <v>9515</v>
+        <f>J$21+(J$22*$I23)</f>
+        <v>3845</v>
       </c>
       <c r="K23" s="22">
-        <f>(K$21*$I23)</f>
-        <v>462</v>
+        <f>(K$22*$I23)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B24" s="22">
-        <f>$B$20+($B$21*A24)</f>
+        <f>$B$21+($B$22*A24)</f>
+        <v>9075</v>
+      </c>
+      <c r="C24" s="23">
+        <f t="shared" ref="C24:C25" si="2">($C$22*A24)</f>
+        <v>315</v>
+      </c>
+      <c r="E24" s="11">
+        <v>21</v>
+      </c>
+      <c r="F24" s="22">
+        <f>$F$21+($F$22*E24)</f>
+        <v>9425</v>
+      </c>
+      <c r="G24" s="23">
+        <f>($G$22*E24)</f>
+        <v>315</v>
+      </c>
+      <c r="I24" s="26">
+        <v>21</v>
+      </c>
+      <c r="J24" s="22">
+        <f>J$21+(J$22*$I24)</f>
+        <v>9515</v>
+      </c>
+      <c r="K24" s="22">
+        <f>(K$22*$I24)</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>42</v>
+      </c>
+      <c r="B25" s="22">
+        <f>$B$21+($B$22*A25)</f>
         <v>13450</v>
       </c>
-      <c r="C24" s="23">
-        <f t="shared" si="1"/>
+      <c r="C25" s="23">
+        <f t="shared" si="2"/>
         <v>630</v>
       </c>
-      <c r="E24" s="11">
-        <v>14</v>
-      </c>
-      <c r="F24" s="22">
-        <f>$F$20+($F$21*E24)</f>
+      <c r="E25" s="11">
+        <v>42</v>
+      </c>
+      <c r="F25" s="22">
+        <f>$F$21+($F$22*E25)</f>
         <v>13800</v>
       </c>
-      <c r="G24" s="23">
-        <f>($G$21*E24)</f>
+      <c r="G25" s="23">
+        <f>($G$22*E25)</f>
         <v>630</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I25" s="26">
         <v>42</v>
       </c>
-      <c r="J24" s="22">
-        <f>J$20+(J$21*$I24)</f>
+      <c r="J25" s="22">
+        <f>J$21+(J$22*$I25)</f>
         <v>16130</v>
       </c>
-      <c r="K24" s="22">
-        <f>(K$21*$I24)</f>
+      <c r="K25" s="22">
+        <f>(K$22*$I25)</f>
         <v>924</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="14"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>84</v>
+      </c>
+      <c r="B26" s="22">
+        <f>$B$21+($B$22*A26)</f>
+        <v>22200</v>
+      </c>
+      <c r="C26" s="23">
+        <f t="shared" ref="C26" si="3">($C$22*A26)</f>
+        <v>1260</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="11">
+        <v>84</v>
+      </c>
+      <c r="F26" s="22">
+        <f>$F$21+($F$22*E26)</f>
+        <v>22550</v>
+      </c>
+      <c r="G26" s="23">
+        <f>($G$22*E26)</f>
+        <v>1260</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="26">
+        <v>84</v>
+      </c>
+      <c r="J26" s="22">
+        <f>J$21+(J$22*$I26)</f>
+        <v>29360</v>
+      </c>
+      <c r="K26" s="22">
+        <f>(K$22*$I26)</f>
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="14"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="20"/>
-      <c r="I26" s="1" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="15">
-        <v>2250</v>
-      </c>
-      <c r="C27" s="19">
-        <v>150</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="15">
-        <v>1800</v>
-      </c>
-      <c r="G27" s="19">
-        <v>85</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="15">
-        <v>600</v>
-      </c>
-      <c r="K27" s="15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="14">
-        <v>1000</v>
-      </c>
-      <c r="C28" s="20">
-        <v>65</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="14">
-        <v>900</v>
-      </c>
-      <c r="G28" s="20">
-        <v>65</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="15">
-        <v>800</v>
-      </c>
-      <c r="K28" s="15">
-        <v>71</v>
-      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="14">
-        <v>1000</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2250</v>
+      </c>
+      <c r="C29" s="19">
+        <v>150</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="14">
-        <v>900</v>
-      </c>
-      <c r="G29" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1800</v>
+      </c>
+      <c r="G29" s="19">
+        <v>85</v>
+      </c>
       <c r="I29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" s="15">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K29" s="15">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="15">
+        <v>20</v>
+      </c>
+      <c r="B30" s="14">
         <v>1000</v>
       </c>
-      <c r="C30" s="19">
-        <v>53</v>
+      <c r="C30" s="20">
+        <v>65</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="15">
-        <v>2000</v>
-      </c>
-      <c r="G30" s="19">
-        <v>71</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="14">
-        <v>1000</v>
-      </c>
-      <c r="K30" s="14">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="F30" s="14">
+        <v>900</v>
+      </c>
+      <c r="G30" s="20">
+        <v>65</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="15">
+        <v>1400</v>
+      </c>
+      <c r="K30" s="15">
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="15">
-        <v>600</v>
-      </c>
-      <c r="C31" s="19">
+        <v>20</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="14">
+        <v>900</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="I31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="15">
         <v>35</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1200</v>
-      </c>
-      <c r="G31" s="19">
-        <v>49</v>
-      </c>
-      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="17">
-        <f>SUM(B27:B31)</f>
-        <v>5850</v>
-      </c>
-      <c r="C32" s="18">
-        <f>SUM(C27:C31)</f>
-        <v>303</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="17">
-        <f>SUM(F27:F31)</f>
-        <v>6800</v>
-      </c>
-      <c r="G32" s="18">
-        <f>SUM(G27:G31)</f>
-        <v>270</v>
-      </c>
-      <c r="J32" s="17">
-        <f>SUM(J27:J30)</f>
-        <v>3800</v>
-      </c>
-      <c r="K32" s="17">
-        <f>SUM(K27:K30)</f>
-        <v>264</v>
+      <c r="A32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="19">
+        <v>53</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="15">
+        <v>600</v>
+      </c>
+      <c r="C33" s="19">
+        <v>35</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1200</v>
+      </c>
+      <c r="G33" s="19">
+        <v>49</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="17">
+        <f>SUM(B29:B33)</f>
+        <v>5850</v>
+      </c>
+      <c r="C34" s="18">
+        <f>SUM(C29:C33)</f>
+        <v>303</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="17">
+        <f>SUM(F29:F33)</f>
+        <v>6800</v>
+      </c>
+      <c r="G34" s="18">
+        <f>SUM(G29:G33)</f>
+        <v>270</v>
+      </c>
+      <c r="J34" s="17">
+        <f>SUM(J29:J31)</f>
+        <v>3200</v>
+      </c>
+      <c r="K34" s="17">
+        <f>SUM(K29:K31)</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B35" s="14">
         <v>700</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C35" s="20">
         <v>45</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F35" s="14">
         <v>700</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G35" s="20">
         <v>45</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I35" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J35" s="15">
         <v>900</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K35" s="15">
         <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>1</v>
-      </c>
-      <c r="B34" s="22">
-        <f>$B$32+($B$33*A34)</f>
-        <v>6550</v>
-      </c>
-      <c r="C34" s="23">
-        <f>($C$33*A34)</f>
-        <v>45</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1</v>
-      </c>
-      <c r="F34" s="22">
-        <f>$F$32+($F$33*E34)</f>
-        <v>7500</v>
-      </c>
-      <c r="G34" s="23">
-        <f>($G$33*E34)</f>
-        <v>45</v>
-      </c>
-      <c r="I34" s="26">
-        <v>1</v>
-      </c>
-      <c r="J34" s="22">
-        <f>J$32+(J$33*$I34)</f>
-        <v>4700</v>
-      </c>
-      <c r="K34" s="22">
-        <f>(K$33*$I34)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>10</v>
-      </c>
-      <c r="B35" s="22">
-        <f t="shared" ref="B35:B36" si="2">$B$32+($B$33*A35)</f>
-        <v>12850</v>
-      </c>
-      <c r="C35" s="23">
-        <f t="shared" ref="C35:C36" si="3">($C$33*A35)</f>
-        <v>450</v>
-      </c>
-      <c r="E35" s="11">
-        <v>10</v>
-      </c>
-      <c r="F35" s="22">
-        <f>$F$32+($F$33*E35)</f>
-        <v>13800</v>
-      </c>
-      <c r="G35" s="23">
-        <f>($G$33*E35)</f>
-        <v>450</v>
-      </c>
-      <c r="I35" s="26">
-        <v>10</v>
-      </c>
-      <c r="J35" s="22">
-        <f>J$32+(J$33*$I35)</f>
-        <v>12800</v>
-      </c>
-      <c r="K35" s="22">
-        <f>(K$33*$I35)</f>
-        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B36" s="22">
-        <f t="shared" si="2"/>
-        <v>19850</v>
+        <f>$B$34+($B$35*A36)</f>
+        <v>6550</v>
       </c>
       <c r="C36" s="23">
-        <f t="shared" si="3"/>
-        <v>900</v>
+        <f>($C$35*A36)</f>
+        <v>45</v>
       </c>
       <c r="E36" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F36" s="22">
-        <f>$F$32+($F$33*E36)</f>
-        <v>20800</v>
+        <f>$F$34+($F$35*E36)</f>
+        <v>7500</v>
       </c>
       <c r="G36" s="23">
-        <f>($G$33*E36)</f>
-        <v>900</v>
+        <f>($G$35*E36)</f>
+        <v>45</v>
       </c>
       <c r="I36" s="26">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J36" s="22">
-        <f>J$32+(J$33*$I36)</f>
-        <v>21800</v>
+        <f>J$34+(J$35*$I36)</f>
+        <v>4100</v>
       </c>
       <c r="K36" s="22">
-        <f>(K$33*$I36)</f>
-        <v>1460</v>
+        <f>(K$35*$I36)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
+      <c r="A37" s="11">
+        <v>11</v>
+      </c>
+      <c r="B37" s="22">
+        <f t="shared" ref="B37:B38" si="4">$B$34+($B$35*A37)</f>
+        <v>13550</v>
+      </c>
+      <c r="C37" s="23">
+        <f t="shared" ref="C37:C38" si="5">($C$35*A37)</f>
+        <v>495</v>
+      </c>
+      <c r="E37" s="11">
+        <v>11</v>
+      </c>
+      <c r="F37" s="22">
+        <f>$F$34+($F$35*E37)</f>
+        <v>14500</v>
+      </c>
+      <c r="G37" s="23">
+        <f>($G$35*E37)</f>
+        <v>495</v>
+      </c>
+      <c r="I37" s="26">
+        <v>11</v>
+      </c>
+      <c r="J37" s="22">
+        <f>J$34+(J$35*$I37)</f>
+        <v>13100</v>
+      </c>
+      <c r="K37" s="22">
+        <f>(K$35*$I37)</f>
+        <v>803</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="11">
+        <v>22</v>
+      </c>
+      <c r="B38" s="22">
+        <f t="shared" si="4"/>
+        <v>21250</v>
+      </c>
+      <c r="C38" s="23">
+        <f t="shared" si="5"/>
+        <v>990</v>
+      </c>
+      <c r="E38" s="11">
+        <v>22</v>
+      </c>
+      <c r="F38" s="22">
+        <f>$F$34+($F$35*E38)</f>
+        <v>22200</v>
+      </c>
+      <c r="G38" s="23">
+        <f>($G$35*E38)</f>
+        <v>990</v>
+      </c>
+      <c r="I38" s="26">
+        <v>22</v>
+      </c>
+      <c r="J38" s="22">
+        <f>J$34+(J$35*$I38)</f>
+        <v>23000</v>
+      </c>
+      <c r="K38" s="22">
+        <f>(K$35*$I38)</f>
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>44</v>
+      </c>
+      <c r="B39" s="22">
+        <f t="shared" ref="B39" si="6">$B$34+($B$35*A39)</f>
+        <v>36650</v>
+      </c>
+      <c r="C39" s="23">
+        <f t="shared" ref="C39" si="7">($C$35*A39)</f>
+        <v>1980</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="11">
+        <v>44</v>
+      </c>
+      <c r="F39" s="22">
+        <f>$F$34+($F$35*E39)</f>
+        <v>37600</v>
+      </c>
+      <c r="G39" s="23">
+        <f>($G$35*E39)</f>
+        <v>1980</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="26">
+        <v>44</v>
+      </c>
+      <c r="J39" s="22">
+        <f>J$34+(J$35*$I39)</f>
+        <v>42800</v>
+      </c>
+      <c r="K39" s="22">
+        <f>(K$35*$I39)</f>
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="20"/>
-      <c r="I38" s="6" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="20"/>
+      <c r="I41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B42" s="14">
         <v>1800</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C42" s="20">
         <v>75</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F42" s="14">
         <v>1250</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G42" s="20">
         <v>70</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J42" s="15">
         <v>1300</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K42" s="15">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="43" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B43" s="15">
         <v>1500</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C43" s="19">
         <v>64</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F43" s="15">
         <v>2000</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G43" s="19">
         <v>99</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="7" t="s">
+      <c r="H43" s="4"/>
+      <c r="I43" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J43" s="15">
         <v>1900</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K43" s="15">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B44" s="15">
         <v>1000</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C44" s="19">
         <v>42</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F44" s="14">
         <v>1000</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G44" s="20">
         <v>42</v>
       </c>
-      <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B45" s="15">
         <v>1500</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C45" s="15">
         <v>64</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F45" s="15">
         <v>3000</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G45" s="15">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B46" s="15">
         <v>600</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C46" s="15">
         <v>28</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="17">
-        <f>SUM(B39:B43)</f>
+      <c r="D46" s="14"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="17">
+        <f>SUM(B42:B46)</f>
         <v>6400</v>
       </c>
-      <c r="C44" s="18">
-        <f>SUM(C39:C43)</f>
+      <c r="C47" s="18">
+        <f>SUM(C42:C46)</f>
         <v>273</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="17">
-        <f>SUM(F39:F42)</f>
+      <c r="E47" s="11"/>
+      <c r="F47" s="17">
+        <f>SUM(F42:F45)</f>
         <v>7250</v>
       </c>
-      <c r="G44" s="18">
-        <f>SUM(G39:G42)</f>
+      <c r="G47" s="18">
+        <f>SUM(G42:G45)</f>
         <v>275</v>
       </c>
-      <c r="J44" s="17">
-        <f>SUM(J39:J40)</f>
+      <c r="J47" s="17">
+        <f>SUM(J42:J43)</f>
         <v>3200</v>
       </c>
-      <c r="K44" s="17">
-        <f>SUM(K39:K40)</f>
+      <c r="K47" s="17">
+        <f>SUM(K42:K43)</f>
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B48" s="14">
         <v>2000</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C48" s="20">
         <v>127</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F48" s="14">
         <v>2000</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G48" s="20">
         <v>127</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J48" s="15">
         <v>1800</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K48" s="15">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>1</v>
       </c>
-      <c r="B46" s="22">
-        <f>$B$44+($B$45*A46)</f>
+      <c r="B49" s="22">
+        <f>$B$47+($B$48*A49)</f>
         <v>8400</v>
       </c>
-      <c r="C46" s="23">
-        <f>($C$45*A46)</f>
+      <c r="C49" s="23">
+        <f>($C$48*A49)</f>
         <v>127</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E49" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="22">
-        <f>$F$44+($F$45*E46)</f>
+      <c r="F49" s="22">
+        <f>$F$47+($F$48*E49)</f>
         <v>9250</v>
       </c>
-      <c r="G46" s="23">
-        <f>($G$45*E46)</f>
+      <c r="G49" s="23">
+        <f>($G$48*E49)</f>
         <v>127</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I49" s="26">
         <v>1</v>
       </c>
-      <c r="J46" s="22">
-        <f>J$44+(J$45*$I46)</f>
+      <c r="J49" s="22">
+        <f>J$47+(J$48*$I49)</f>
         <v>5000</v>
       </c>
-      <c r="K46" s="22">
-        <f>(K$45*$I46)</f>
+      <c r="K49" s="22">
+        <f>(K$48*$I49)</f>
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>3</v>
       </c>
-      <c r="B47" s="22">
-        <f t="shared" ref="B47:B48" si="4">$B$44+($B$45*A47)</f>
+      <c r="B50" s="22">
+        <f t="shared" ref="B50:B51" si="8">$B$47+($B$48*A50)</f>
         <v>12400</v>
       </c>
-      <c r="C47" s="23">
-        <f t="shared" ref="C47:C48" si="5">($C$45*A47)</f>
+      <c r="C50" s="23">
+        <f t="shared" ref="C50:C51" si="9">($C$48*A50)</f>
         <v>381</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E50" s="11">
         <v>3</v>
       </c>
-      <c r="F47" s="22">
-        <f>$F$44+($F$45*E47)</f>
+      <c r="F50" s="22">
+        <f>$F$47+($F$48*E50)</f>
         <v>13250</v>
       </c>
-      <c r="G47" s="23">
-        <f>($G$45*E47)</f>
+      <c r="G50" s="23">
+        <f>($G$48*E50)</f>
         <v>381</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I50" s="26">
         <v>3</v>
       </c>
-      <c r="J47" s="22">
-        <f>J$44+(J$45*$I47)</f>
+      <c r="J50" s="22">
+        <f>J$47+(J$48*$I50)</f>
         <v>8600</v>
       </c>
-      <c r="K47" s="22">
-        <f>(K$45*$I47)</f>
+      <c r="K50" s="22">
+        <f>(K$48*$I50)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>6</v>
-      </c>
-      <c r="B48" s="22">
-        <f t="shared" si="4"/>
-        <v>18400</v>
-      </c>
-      <c r="C48" s="23">
-        <f t="shared" si="5"/>
-        <v>762</v>
-      </c>
-      <c r="E48" s="11">
-        <v>6</v>
-      </c>
-      <c r="F48" s="22">
-        <f>$F$44+($F$45*E48)</f>
-        <v>19250</v>
-      </c>
-      <c r="G48" s="23">
-        <f>($G$45*E48)</f>
-        <v>762</v>
-      </c>
-      <c r="I48" s="26">
-        <v>6</v>
-      </c>
-      <c r="J48" s="22">
-        <f>J$44+(J$45*$I48)</f>
-        <v>14000</v>
-      </c>
-      <c r="K48" s="22">
-        <f>(K$45*$I48)</f>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="19"/>
-      <c r="E49" s="11"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>5</v>
+      </c>
+      <c r="B51" s="22">
+        <f t="shared" si="8"/>
+        <v>16400</v>
+      </c>
+      <c r="C51" s="23">
+        <f t="shared" si="9"/>
+        <v>635</v>
+      </c>
+      <c r="E51" s="11">
+        <v>5</v>
+      </c>
+      <c r="F51" s="22">
+        <f>$F$47+($F$48*E51)</f>
+        <v>17250</v>
+      </c>
+      <c r="G51" s="23">
+        <f>($G$48*E51)</f>
+        <v>635</v>
+      </c>
+      <c r="I51" s="26">
+        <v>5</v>
+      </c>
+      <c r="J51" s="22">
+        <f>J$47+(J$48*$I51)</f>
+        <v>12200</v>
+      </c>
+      <c r="K51" s="22">
+        <f>(K$48*$I51)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>10</v>
+      </c>
+      <c r="B52" s="22">
+        <f t="shared" ref="B52" si="10">$B$47+($B$48*A52)</f>
+        <v>26400</v>
+      </c>
+      <c r="C52" s="23">
+        <f t="shared" ref="C52" si="11">($C$48*A52)</f>
+        <v>1270</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="11">
+        <v>10</v>
+      </c>
+      <c r="F52" s="22">
+        <f>$F$47+($F$48*E52)</f>
+        <v>27250</v>
+      </c>
+      <c r="G52" s="23">
+        <f>($G$48*E52)</f>
+        <v>1270</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="26">
+        <v>10</v>
+      </c>
+      <c r="J52" s="22">
+        <f>J$47+(J$48*$I52)</f>
+        <v>21200</v>
+      </c>
+      <c r="K52" s="22">
+        <f>(K$48*$I52)</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="19"/>
+      <c r="E53" s="11"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="20"/>
-      <c r="I50" s="6" t="s">
+      <c r="F54" s="14"/>
+      <c r="G54" s="20"/>
+      <c r="I54" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B55" s="14">
         <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C55" s="20">
         <v>60</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F55" s="14">
         <v>750</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G55" s="20">
         <v>35</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J55" s="15">
         <v>5500</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K55" s="14">
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B56" s="14">
         <v>3500</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C56" s="20">
         <v>75</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E56" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F56" s="14">
         <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G56" s="20">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B57" s="14">
         <v>1800</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C57" s="20">
         <v>75</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E57" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F57" s="14">
         <v>4000</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G57" s="20">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="58" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B58" s="14">
         <v>1800</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C58" s="20">
         <v>99</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="11" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F58" s="14">
         <v>1250</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G58" s="20">
         <v>70</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C55" s="20">
-        <v>28</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="14">
-        <v>2500</v>
-      </c>
-      <c r="G55" s="20">
-        <v>141</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="15">
-        <v>1500</v>
-      </c>
-      <c r="C56" s="15">
-        <v>64</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="15">
-        <v>1000</v>
-      </c>
-      <c r="G56" s="20">
-        <v>64</v>
-      </c>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="15">
-        <v>600</v>
-      </c>
-      <c r="C57" s="15">
-        <v>21</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" s="15">
-        <v>1500</v>
-      </c>
-      <c r="G57" s="15">
-        <v>42</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="17">
-        <f>SUM(B51:B57)</f>
-        <v>11200</v>
-      </c>
-      <c r="C58" s="18">
-        <f>SUM(C51:C57)</f>
-        <v>422</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="17">
-        <f>SUM(F51:F57)</f>
-        <v>12000</v>
-      </c>
-      <c r="G58" s="18">
-        <f>SUM(G51:G57)</f>
-        <v>497</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="17">
-        <f>SUM(J51:J51)</f>
-        <v>5500</v>
-      </c>
-      <c r="K58" s="17">
-        <f>SUM(K51:K51)</f>
-        <v>255</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>37</v>
-      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C59" s="20">
+        <v>28</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="14">
+        <v>2500</v>
+      </c>
+      <c r="G59" s="20">
+        <v>141</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="15">
+        <v>1500</v>
+      </c>
+      <c r="C60" s="15">
+        <v>64</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="20">
+        <v>64</v>
+      </c>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="15">
+        <v>600</v>
+      </c>
+      <c r="C61" s="15">
+        <v>21</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="15">
+        <v>1500</v>
+      </c>
+      <c r="G61" s="15">
+        <v>42</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="17">
+        <f>SUM(B55:B61)</f>
+        <v>11200</v>
+      </c>
+      <c r="C62" s="18">
+        <f>SUM(C55:C61)</f>
+        <v>422</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="17">
+        <f>SUM(F55:F61)</f>
+        <v>12000</v>
+      </c>
+      <c r="G62" s="18">
+        <f>SUM(G55:G61)</f>
+        <v>497</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="17">
+        <f>SUM(J55:J55)</f>
+        <v>5500</v>
+      </c>
+      <c r="K62" s="17">
+        <f>SUM(K55:K55)</f>
+        <v>255</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B63" s="14">
         <v>4000</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C63" s="20">
         <v>215</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F63" s="14">
         <v>4000</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G63" s="20">
         <v>215</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J63" s="15">
         <v>4500</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K63" s="15">
         <v>250</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L63" s="14">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
         <v>1</v>
       </c>
-      <c r="B60" s="22">
-        <f>$B$58+($B$59*A60)</f>
+      <c r="B64" s="22">
+        <f>$B$62+($B$63*A64)</f>
         <v>15200</v>
       </c>
-      <c r="C60" s="23">
-        <f>($C$59*A60)</f>
+      <c r="C64" s="23">
+        <f>($C$63*A64)</f>
         <v>215</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E64" s="11">
         <v>1</v>
       </c>
-      <c r="F60" s="22">
-        <f>$F$58+($F$59*E60)</f>
+      <c r="F64" s="22">
+        <f>$F$62+($F$63*E64)</f>
         <v>16000</v>
       </c>
-      <c r="G60" s="23">
-        <f>($G$59*E60)</f>
+      <c r="G64" s="23">
+        <f>($G$63*E64)</f>
         <v>215</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I64" s="26">
         <v>1</v>
       </c>
-      <c r="J60" s="22">
-        <f>J$58+(J$59*$I60)</f>
+      <c r="J64" s="22">
+        <f>J$62+(J$63*$I64)</f>
         <v>10000</v>
       </c>
-      <c r="K60" s="22">
-        <f>(K$59*$I60)</f>
+      <c r="K64" s="22">
+        <f>(K$63*$I64)</f>
         <v>250</v>
       </c>
-      <c r="L60" s="16">
-        <f>J60+(I60*$L$59)</f>
+      <c r="L64" s="16">
+        <f>J64+(I64*$L$63)</f>
         <v>10800</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
         <v>2</v>
       </c>
-      <c r="B61" s="22">
-        <f>$B$58+($B$59*A61)</f>
+      <c r="B65" s="22">
+        <f>$B$62+($B$63*A65)</f>
         <v>19200</v>
       </c>
-      <c r="C61" s="23">
-        <f>($C$59*A61)</f>
+      <c r="C65" s="23">
+        <f>($C$63*A65)</f>
         <v>430</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E65" s="11">
         <v>2</v>
       </c>
-      <c r="F61" s="22">
-        <f>$F$58+($F$59*E61)</f>
+      <c r="F65" s="22">
+        <f>$F$62+($F$63*E65)</f>
         <v>20000</v>
       </c>
-      <c r="G61" s="23">
-        <f>($G$59*E61)</f>
+      <c r="G65" s="23">
+        <f>($G$63*E65)</f>
         <v>430</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I65" s="26">
         <v>2</v>
       </c>
-      <c r="J61" s="22">
-        <f>J$58+(J$59*$I61)</f>
+      <c r="J65" s="22">
+        <f>J$62+(J$63*$I65)</f>
         <v>14500</v>
       </c>
-      <c r="K61" s="22">
-        <f>(K$59*$I61)</f>
+      <c r="K65" s="22">
+        <f>(K$63*$I65)</f>
         <v>500</v>
       </c>
-      <c r="L61" s="16">
-        <f>J61+(I61*$L$59)</f>
+      <c r="L65" s="16">
+        <f>J65+(I65*$L$63)</f>
         <v>16100</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
         <v>3</v>
       </c>
-      <c r="B62" s="22">
-        <f>$B$58+($B$59*A62)</f>
+      <c r="B66" s="22">
+        <f>$B$62+($B$63*A66)</f>
         <v>23200</v>
       </c>
-      <c r="C62" s="23">
-        <f>($C$59*A62)</f>
+      <c r="C66" s="23">
+        <f>($C$63*A66)</f>
         <v>645</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E66" s="11">
         <v>3</v>
       </c>
-      <c r="F62" s="22">
-        <f>$F$58+($F$59*E62)</f>
+      <c r="F66" s="22">
+        <f>$F$62+($F$63*E66)</f>
         <v>24000</v>
       </c>
-      <c r="G62" s="23">
-        <f>($G$59*E62)</f>
+      <c r="G66" s="23">
+        <f>($G$63*E66)</f>
         <v>645</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I66" s="27">
         <v>3</v>
       </c>
-      <c r="J62" s="22">
-        <f>J$58+(J$59*$I62)</f>
+      <c r="J66" s="22">
+        <f>J$62+(J$63*$I66)</f>
         <v>19000</v>
       </c>
-      <c r="K62" s="22">
-        <f>(K$59*$I62)</f>
+      <c r="K66" s="22">
+        <f>(K$63*$I66)</f>
         <v>750</v>
       </c>
-      <c r="L62" s="16">
-        <f>J62+(I62*$L$59)</f>
+      <c r="L66" s="16">
+        <f>J66+(I66*$L$63)</f>
         <v>21400</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E64" s="11"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+    <row r="67" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>4</v>
+      </c>
+      <c r="B67" s="22">
+        <f>$B$62+($B$63*A67)</f>
+        <v>27200</v>
+      </c>
+      <c r="C67" s="23">
+        <f>($C$63*A67)</f>
+        <v>860</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="11">
+        <v>4</v>
+      </c>
+      <c r="F67" s="22">
+        <f>$F$62+($F$63*E67)</f>
+        <v>28000</v>
+      </c>
+      <c r="G67" s="23">
+        <f>($G$63*E67)</f>
+        <v>860</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="27">
+        <v>4</v>
+      </c>
+      <c r="J67" s="22">
+        <f>J$62+(J$63*$I67)</f>
+        <v>23500</v>
+      </c>
+      <c r="K67" s="22">
+        <f>(K$63*$I67)</f>
+        <v>1000</v>
+      </c>
+      <c r="L67" s="16">
+        <f>J67+(I67*$L$63)</f>
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E69" s="11"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
